--- a/backend/data/odds/2021/Week_14.xlsx
+++ b/backend/data/odds/2021/Week_14.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-180</t>
+          <t>-170</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+155</t>
+          <t>+150</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -512,12 +512,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-145</t>
+          <t>-140</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+125</t>
+          <t>+120</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -574,12 +574,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+340</t>
+          <t>+350</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -605,12 +605,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+195</t>
+          <t>+190</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-240</t>
+          <t>-235</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -636,12 +636,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+170</t>
+          <t>+175</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-210</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -667,12 +667,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+120</t>
+          <t>+125</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -729,12 +729,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>-600</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+350</t>
+          <t>+435</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-475</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+350</t>
+          <t>+300</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -853,12 +853,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-590</t>
+          <t>-600</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+425</t>
+          <t>+435</t>
         </is>
       </c>
       <c r="F14" t="n">
